--- a/biology/Zoologie/Araniella_villanii/Araniella_villanii.xlsx
+++ b/biology/Zoologie/Araniella_villanii/Araniella_villanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araniella villanii est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araniella villanii est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran au Tchaharmahal-et-Bakhtiari, au Kazakhstan au Kazakhstan-Oriental et en Inde en Himachal Pradesh[1],[2].
-Elle est potentiellement largement distribué au Moyen-Orient et en Asie centrale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran au Tchaharmahal-et-Bakhtiari, au Kazakhstan au Kazakhstan-Oriental et en Inde en Himachal Pradesh,.
+Elle est potentiellement largement distribué au Moyen-Orient et en Asie centrale.
 </t>
         </is>
       </c>
@@ -543,20 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,37 mm et la femelle paratype 6,00 mm[2].
-Mâle
-La carapace, le sternum, le labium, les chélicères et les maxillaires sont brun rougeâtre, plus clair ventralement, carapace avec deux larges bandes marginales sombres. Les pattes sont de couleur plus claire que la carapace, distalement avec de larges annulations sombres. L'abdomen est pâle (stocké dans l'alcool, très probablement vert dans les spécimens vivants) dorsalement, gris foncé ventralement, postéro-dorsalement avec trois paires de taches latérales noires. Les filières sont brun clair, le segment apical plus clair[2].
-La carapace mesure 1,91 mm de long sur 1,69 mm pour la pars thoracica et 0,76 mm pour chez la pars cephalica[2].
-La tailles des yeux et leurs inter-distances est : AME: 0,08, ALE: 0,07, PME: 0,09, PLE: 0,09, AME – AME: 0,12, PME – PME: 0,11[2].
-La patte I mesure : 6,43 mm (1,97, 0,82, 1,50, 1,46, 0,68)[2].
-Femelle
-La coloration est identique à celle du mâle[2].
-Les conduits copulateurs ne sont pas clairement visibles à travers la cuticule épigyne[2].
-La carapace mesure mm de long sur mm 2,58 de long, 2,15 de large chez la pars thoracica, 1,29 chez la pars cephalica[2].
-La tailles des yeux et leurs inter-distances est : AME: 0,09, ALE: 0,08, PME: 0,10, PLE: 0,09, AME – AME: 0,14, PME – PME: 0,12[2].
-La patte I mesure : 6,78 mm (1,93, 0,98, 1,49, 1,51, 0,87)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,37 mm et la femelle paratype 6,00 mm.
 </t>
         </is>
       </c>
@@ -582,12 +587,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Systématique et taxinomie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Zamani, Marusik et Šestáková en 2020.
+          <t>Mâle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace, le sternum, le labium, les chélicères et les maxillaires sont brun rougeâtre, plus clair ventralement, carapace avec deux larges bandes marginales sombres. Les pattes sont de couleur plus claire que la carapace, distalement avec de larges annulations sombres. L'abdomen est pâle (stocké dans l'alcool, très probablement vert dans les spécimens vivants) dorsalement, gris foncé ventralement, postéro-dorsalement avec trois paires de taches latérales noires. Les filières sont brun clair, le segment apical plus clair.
+La carapace mesure 1,91 mm de long sur 1,69 mm pour la pars thoracica et 0,76 mm pour chez la pars cephalica.
+La tailles des yeux et leurs inter-distances est : AME: 0,08, ALE: 0,07, PME: 0,09, PLE: 0,09, AME – AME: 0,12, PME – PME: 0,11.
+La patte I mesure : 6,43 mm (1,97, 0,82, 1,50, 1,46, 0,68).
 </t>
         </is>
       </c>
@@ -613,12 +627,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cédric Villani[2],[3],[4], mathématicien et homme politique français, et ce en raison de sa passion notable pour les araignées.
+          <t>Femelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration est identique à celle du mâle.
+Les conduits copulateurs ne sont pas clairement visibles à travers la cuticule épigyne.
+La carapace mesure mm de long sur mm 2,58 de long, 2,15 de large chez la pars thoracica, 1,29 chez la pars cephalica.
+La tailles des yeux et leurs inter-distances est : AME: 0,09, ALE: 0,08, PME: 0,10, PLE: 0,09, AME – AME: 0,14, PME – PME: 0,12.
+La patte I mesure : 6,78 mm (1,93, 0,98, 1,49, 1,51, 0,87).
 </t>
         </is>
       </c>
@@ -644,10 +668,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique et taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Zamani, Marusik et Šestáková en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Araniella_villanii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araniella_villanii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cédric Villani mathématicien et homme politique français, et ce en raison de sa passion notable pour les araignées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Araniella_villanii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araniella_villanii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Zamani, Marusik &amp; Šestáková, 2020 : « On Araniella and Neoscona (Araneae, Araneidae) of the Caucasus, Middle East and Central Asia. » ZooKeys, vol. 906, p. 13-40 (texte intégral).</t>
         </is>
